--- a/21130112_LeNguyenHoangNam_Q&A.xlsx
+++ b/21130112_LeNguyenHoangNam_Q&A.xlsx
@@ -31,64 +31,64 @@
     <t>Website thương mại điện tử Shoppee - SRS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Người dùng di động có xu hướng truy vấn đơn hàng trong chính ứng dụng đấy thay vì phải qua bên cung cấp dịch vụ giao hàng nhiều hơn, nhưng nếu hệ thống không hỗ trợ tính năng này, nó có thể làm giảm trải nghiệm người dùng.</t>
+    <t>Mobile users tend to query orders directly within the app rather than through the delivery service provider, but if the system does not support this feature, the user experience can be degraded.</t>
   </si>
   <si>
-    <t>Tích hợp công nghệ truy vấn đơn hàng vào ứng dụng: Shopee nên cung cấp tính năng truy vấn đơn hàng, đặc biệt cho người dùng trên thiết bị di động. Điều này có thể thực hiện thông qua công nghệ nhận diện quản lý đơn hàng.</t>
+    <t>Integrate order tracking technology into the app: Shopee should provide order tracking features, especially for mobile users. This can be done through order management recognition technology.</t>
   </si>
   <si>
-    <t>Kết quả hiển thị có quá nhiều sản phẩm gần như giống nhau, chỉ khác biệt nhỏ về màu sắc hoặc phiên bản, dẫn đến tình trạng không biết sản phẩm mình đã mua.</t>
+    <t>The results show too many products that are almost identical, with only minor differences in color or version, leading to a situation where you don't know which product you bought.</t>
   </si>
   <si>
-    <t>Có thể nhóm các sản phẩm cùng loại với nhau thành 1 nhóm sản phẩm riêng biệt(ví dụ, các màu sắc khác nhau hoặc kích thước khác nhau), giúp giảm số lượng kết quả hiển thị mà người dùng phải duyệt qua.</t>
+    <t>Products of the same type can be grouped into distinct product groups (e.g. different colors or different sizes), reducing the number of results a user has to browse through.</t>
   </si>
   <si>
-    <t>Đối với người dùng quốc tế hoặc người dùng không thông thạo ngôn ngữ của nền tảng, có thể gặp khó khăn nếu không có bản dịch chính xác.</t>
+    <t>For international users or users who are not fluent in the platform's language, not having an accurate translation can be difficult.</t>
   </si>
   <si>
-    <t>Hệ thống có thể tự động dịch ngôn ngữ của người dùng sang ngôn ngữ của nền tảng (ví dụ từ tiếng Anh sang tiếng Việt) và thực hiện trên bản dịch. Đồng thời, kết quả tìm kiếm cũng có thể được hiển thị bằng ngôn ngữ của người dùng.</t>
+    <t>The system can automatically translate the user's language into the platform's language (for example, from English to Vietnamese) and perform the translation. At the same time, the search results can also be displayed in the user's language.</t>
   </si>
   <si>
-    <t>Khi kết nối internet của người dùng yếu hoặc không ổn định, quá trình tìm kiếm có thể bị gián đoạn hoặc kết quả tìm kiếm hiển thị chậm.</t>
+    <t>When a user's Internet connection is weak or unstable, the search process may be interrupted or search results may display slowly.</t>
   </si>
   <si>
-    <t>Cung cấp chế độ tìm kiếm ngoại tuyến dựa trên các kết quả tìm kiếm trước đó mà không yêu cầu kết nối mạng liên tục.</t>
+    <t>Provides offline search mode based on previous search results without requiring a persistent network connection.</t>
   </si>
   <si>
-    <t xml:space="preserve">Khi tìm kiếm bằng từ khoá, trang web không tự động điền từ khoá liên quan. </t>
+    <t>When searching by keyword, the site does not automatically fill in related keywords.</t>
   </si>
   <si>
-    <t>Hệ thống nên thêm tính năng tự động điền từ khoá liên quan để giúp người dùng tìm kiếm dễ dàng hơn.</t>
+    <t>The system should add a feature to automatically fill in related keywords to help users search more easily.</t>
   </si>
   <si>
     <t>Người dùng có thể bắt đầu tìm kiếm đơn hàng trên một thiết bị (ví dụ: máy tính) và muốn tiếp tục quá trình tìm kiếm trên một thiết bị khác (ví dụ: điện thoại). Tuy nhiên, thông tin tìm kiếm không được đồng bộ giữa các thiết bị.</t>
   </si>
   <si>
-    <t>Hệ thống cần đồng bộ hóa lịch sử tìm kiếm đơn hàng giữa các thiết bị. Khi người dùng đăng nhập trên bất kỳ thiết bị nào, họ có thể tiếp tục tìm kiếm từ vị trí mà họ đã dừng lại.</t>
+    <t>A user may start searching for an order on one device (e.g., a computer) and want to continue searching on another device (e.g., a phone). However, search information is not synchronized between devices.</t>
   </si>
   <si>
-    <t>Các sản phẩm có số lượng giới hạn, đã bị gỡ bỏ khỏi shop, có thể khó tìm hoặc bị bỏ qua khi người dùng muốn tiếp tục đặt mua.</t>
+    <t>Products that are limited in quantity, have been removed from the store, can be difficult to find or overlooked when users want to continue shopping.</t>
   </si>
   <si>
-    <t>Cung cấp nhãn hoặc đề xuất các sản phẩm tương tự trong kết quả tìm kiếm, giúp chúng nổi bật hơn so giúp người dùng dễ nhận biết.</t>
+    <t>Provide labels or suggestions for similar products in search results, making them more prominent and recognizable to users.</t>
   </si>
   <si>
-    <t>Khi người dùng tìm kiếm sản phẩm trên Shopee, hệ thống không có khả năng ghi nhớ đơn hàng mà họ đã tìm kiếm trước đó. Điều này có thể gây ra sự bất tiện, đặc biệt đối với người dùng thường xuyên tìm kiếm các đơn hàng trong một khoảng thời gian nhất định.</t>
+    <t>When users search for products on Shopee, the system cannot remember the orders they have searched for before. This can be inconvenient, especially for users who frequently search for orders within a certain period of time.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hệ thống tìm kiếm của Shopee nên lưu trữ dữ liệu về đơn hàng mà người dùng đã tìm kiếm trong các lần trước đó. </t>
+    <t>Shopee's search system will store data about orders that users have previously searched for.</t>
   </si>
   <si>
-    <t xml:space="preserve">Khi người dùng sử dụng bộ lọc để tùy chỉnh tìm kiếm đơn hàng (chẳng hạn như lọc theo tên shop, id đơn hàng hoặc tên sản phẩm), họ phải thực hiện lại toàn bộ các thao tác từ đầu trong các lần tìm kiếm tiếp theo. Điều này gây ra sự bất tiện khi họ có nhu cầu thường xuyên tìm kiếm sản phẩm theo các tiêu chí trên. </t>
+    <t>When users use filters to customize their order search (such as filtering by store name, order ID, or product name), they have to do all the steps again from the beginning in subsequent searches. This is inconvenient when they need to frequently search for products according to the above criteria.</t>
   </si>
   <si>
-    <t>Nên cho phép người dùng lưu lại các cài đặt bộ lọc hiện tại dưới dạng một "bộ lọc yêu thích". Người dùng có thể đặt tên cho các bộ lọc này, chẳng hạn như các danh mục tìm kiếm.</t>
+    <t>It is recommended to allow users to save their current filter settings as “favorite filters”. Users can give these filters names, such as search category.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quá nhiều bước để có thể truy cập vào chức năng theo dõi đơn hàng </t>
+    <t>Too many steps to access order tracking function</t>
   </si>
   <si>
-    <t>Cần hiển thị chức năng theo dõi đơn hàng dễ nhận biết hơn</t>
+    <t>Need to display order tracking function more easily recognizable</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -627,10 +627,10 @@
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
